--- a/爬楼梯推导.xlsx
+++ b/爬楼梯推导.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>爬楼梯</t>
   </si>
@@ -85,16 +85,31 @@
     <t>从头开始</t>
   </si>
   <si>
+    <t>7+3</t>
+  </si>
+  <si>
+    <t>19+7</t>
+  </si>
+  <si>
+    <t>22+10</t>
+  </si>
+  <si>
     <t>到尾结束</t>
   </si>
   <si>
-    <t>7+3</t>
-  </si>
-  <si>
     <t>9+8</t>
   </si>
   <si>
     <t>17+4</t>
+  </si>
+  <si>
+    <t>17+7</t>
+  </si>
+  <si>
+    <t>21+10</t>
+  </si>
+  <si>
+    <t>24+14</t>
   </si>
 </sst>
 </file>
@@ -725,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,11 +756,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1060,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="C1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.11111111111111" defaultRowHeight="24" customHeight="1"/>
@@ -1159,51 +1177,51 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <f>SUM(I3:J3)</f>
+        <f t="shared" ref="K3:V3" si="0">SUM(I3:J3)</f>
         <v>21</v>
       </c>
       <c r="L3">
-        <f>SUM(J3:K3)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="M3">
-        <f>SUM(K3:L3)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="N3">
-        <f>SUM(L3:M3)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="O3">
-        <f>SUM(M3:N3)</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="P3">
-        <f>SUM(N3:O3)</f>
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="Q3">
-        <f>SUM(O3:P3)</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="R3">
-        <f>SUM(P3:Q3)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="S3">
-        <f>SUM(Q3:R3)</f>
+        <f t="shared" si="0"/>
         <v>987</v>
       </c>
       <c r="T3">
-        <f>SUM(R3:S3)</f>
+        <f t="shared" si="0"/>
         <v>1597</v>
       </c>
       <c r="U3">
-        <f>SUM(S3:T3)</f>
+        <f t="shared" si="0"/>
         <v>2584</v>
       </c>
       <c r="V3">
-        <f>SUM(T3:U3)</f>
+        <f t="shared" si="0"/>
         <v>4181</v>
       </c>
     </row>
@@ -1338,7 +1356,7 @@
       <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1360,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1392,7 +1410,7 @@
       <c r="K11" s="4">
         <v>19</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>21</v>
       </c>
       <c r="M11" s="4">
@@ -1406,7 +1424,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="5:14">
       <c r="E14">
@@ -1440,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="5:13">
+    <row r="15" customHeight="1" spans="5:14">
       <c r="E15">
         <v>2</v>
       </c>
@@ -1467,6 +1485,9 @@
       </c>
       <c r="M15">
         <v>10</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:4">
@@ -1480,25 +1501,66 @@
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <v>19</v>
+      </c>
+      <c r="J17" s="5">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5">
+        <v>22</v>
+      </c>
+      <c r="L17" s="5">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="3:23">
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18"/>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1513,11 +1575,33 @@
         <v>16</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4">
+        <v>19</v>
+      </c>
+      <c r="L19" s="4">
+        <v>22</v>
+      </c>
+      <c r="M19" s="4">
+        <v>26</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1529,32 +1613,38 @@
     </row>
     <row r="20" customHeight="1" spans="3:14">
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>8</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>10</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>17</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>17</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>21</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:11">
+      <c r="L20" s="5">
+        <v>24</v>
+      </c>
+      <c r="M20" s="5">
+        <v>31</v>
+      </c>
+      <c r="N20" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1566,19 +1656,32 @@
         <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:11">
+        <v>23</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:18">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,6 +1704,19 @@
       <c r="K22">
         <v>17</v>
       </c>
+      <c r="L22" s="7">
+        <v>21</v>
+      </c>
+      <c r="M22" s="7">
+        <v>24</v>
+      </c>
+      <c r="N22" s="7">
+        <v>31</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
